--- a/测试用例1.xlsx
+++ b/测试用例1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>序号</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>期望结果</t>
-  </si>
-  <si>
-    <t>计算器加法-st-01</t>
   </si>
   <si>
     <t>测试计算器6+5</t>
@@ -155,8 +152,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -167,8 +164,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,82 +284,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,38 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -320,49 +317,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,133 +485,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,17 +511,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,17 +544,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,21 +574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -593,6 +581,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +628,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,7 +1087,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1137,29 +1134,27 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2"/>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:9">
@@ -1167,28 +1162,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" ht="66" customHeight="1" spans="1:9">
@@ -1196,28 +1191,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" ht="79" customHeight="1" spans="1:9">
@@ -1225,28 +1220,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1">

--- a/测试用例1.xlsx
+++ b/测试用例1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>序号</t>
   </si>
@@ -96,9 +96,6 @@
     <t>1、打开邮箱界面
 2、输入正常
 3、登录成功</t>
-  </si>
-  <si>
-    <t>邮箱登录-1.0-st-02</t>
   </si>
   <si>
     <t>使用正确的用户名和
@@ -150,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -164,82 +161,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,6 +191,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,19 +261,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,25 +314,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,78 +471,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +505,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,6 +558,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,65 +605,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -616,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,133 +625,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,7 +1084,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1134,7 +1131,6 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2"/>
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -1190,14 +1186,12 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B4"/>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -1206,13 +1200,13 @@
         <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" ht="79" customHeight="1" spans="1:9">
@@ -1220,28 +1214,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:1">
